--- a/src/main/java/org/assignment2/testData/testData.xlsx
+++ b/src/main/java/org/assignment2/testData/testData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>TID</t>
   </si>
@@ -43,10 +43,19 @@
     <t>FAIL</t>
   </si>
   <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>dinith123</t>
+  </si>
+  <si>
+    <t>Dinith123</t>
+  </si>
+  <si>
+    <t>valid username, invalid password</t>
+  </si>
+  <si>
     <t>T003</t>
-  </si>
-  <si>
-    <t>dinith123</t>
   </si>
   <si>
     <t>Dinith@123</t>
@@ -94,7 +103,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -318,7 +327,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="30.75"/>
     <col customWidth="1" min="4" max="4" width="29.75"/>
+    <col customWidth="1" min="5" max="5" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -369,21 +380,43 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
